--- a/data/Cursos.xlsx
+++ b/data/Cursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logistics One\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC3FC5A5-6329-43D2-8CF1-F58BDB7DF88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ACABF9-3A20-44F0-AE64-DB870677473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-3045" windowWidth="20730" windowHeight="11040" xr2:uid="{837723A3-A4AF-4CFA-9FB7-AB7E64066E79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{837723A3-A4AF-4CFA-9FB7-AB7E64066E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>CodigoCurso</t>
   </si>
@@ -75,6 +75,33 @@
   </si>
   <si>
     <t>CURSO 3</t>
+  </si>
+  <si>
+    <t>17:15:00</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>15:15:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>19:30:00</t>
+  </si>
+  <si>
+    <t>19:15:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
   </si>
 </sst>
 </file>
@@ -113,7 +140,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +478,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,14 +527,14 @@
       <c r="D2" s="1">
         <v>45898</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.83333333333333337</v>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -523,14 +550,14 @@
       <c r="D3" s="1">
         <v>45899</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.66666666666666663</v>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -546,14 +573,14 @@
       <c r="D4" s="1">
         <v>45900</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.75</v>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -569,14 +596,14 @@
       <c r="D5" s="1">
         <v>45901</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.83333333333333337</v>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,14 +619,14 @@
       <c r="D6" s="1">
         <v>45902</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.66666666666666663</v>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,14 +642,14 @@
       <c r="D7" s="1">
         <v>45903</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.75</v>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -638,14 +665,14 @@
       <c r="D8" s="1">
         <v>45904</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.83333333333333337</v>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,14 +688,14 @@
       <c r="D9" s="1">
         <v>45905</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.66666666666666663</v>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,14 +711,14 @@
       <c r="D10" s="1">
         <v>45906</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.75</v>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,14 +734,14 @@
       <c r="D11" s="1">
         <v>45907</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.83333333333333337</v>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,14 +757,14 @@
       <c r="D12" s="1">
         <v>45908</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.66666666666666663</v>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,14 +780,14 @@
       <c r="D13" s="1">
         <v>45909</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.75</v>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,14 +803,14 @@
       <c r="D14" s="1">
         <v>45910</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.83333333333333337</v>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,14 +826,14 @@
       <c r="D15" s="1">
         <v>45911</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.66666666666666663</v>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,14 +849,14 @@
       <c r="D16" s="1">
         <v>45912</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.71875</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.75</v>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
